--- a/schedules/2020도선고_로봇캠프.xlsx
+++ b/schedules/2020도선고_로봇캠프.xlsx
@@ -37,33 +37,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>박성현</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-010-4221-8872
-pajoheji0909@snu.ac.kr</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>아두이노 모터</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -90,33 +63,6 @@
   </si>
   <si>
     <t>로봇 미로 찾기</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>정재영</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-010-4003-9403
-robot0321@snu.ac.kr</t>
-    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -392,6 +338,58 @@
       </rPr>
       <t xml:space="preserve">
 1] 자율주행로봇 코드보완</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>박성현</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+pajoheji0909@snu.ac.kr</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>정재영</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1112,6 +1110,33 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1148,6 +1173,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1155,49 +1189,13 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1483,7 +1481,7 @@
   <dimension ref="B1:Q15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+      <selection activeCell="N18" sqref="N18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1499,55 +1497,55 @@
   <sheetData>
     <row r="1" spans="2:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="2:17" ht="54.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="48" t="s">
+      <c r="B2" s="60" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="49"/>
-      <c r="D2" s="49"/>
-      <c r="E2" s="49"/>
-      <c r="F2" s="49"/>
-      <c r="G2" s="49"/>
-      <c r="H2" s="49"/>
-      <c r="I2" s="49"/>
-      <c r="J2" s="49"/>
-      <c r="K2" s="49"/>
-      <c r="L2" s="50"/>
-      <c r="N2" s="39" t="s">
-        <v>36</v>
-      </c>
-      <c r="O2" s="40"/>
-      <c r="P2" s="40"/>
-      <c r="Q2" s="41"/>
+      <c r="C2" s="61"/>
+      <c r="D2" s="61"/>
+      <c r="E2" s="61"/>
+      <c r="F2" s="61"/>
+      <c r="G2" s="61"/>
+      <c r="H2" s="61"/>
+      <c r="I2" s="61"/>
+      <c r="J2" s="61"/>
+      <c r="K2" s="61"/>
+      <c r="L2" s="62"/>
+      <c r="N2" s="48" t="s">
+        <v>34</v>
+      </c>
+      <c r="O2" s="49"/>
+      <c r="P2" s="49"/>
+      <c r="Q2" s="50"/>
     </row>
     <row r="3" spans="2:17" ht="50.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B3" s="6" t="s">
-        <v>4</v>
+        <v>47</v>
       </c>
       <c r="C3" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="D3" s="57" t="s">
+        <v>33</v>
+      </c>
+      <c r="E3" s="58"/>
+      <c r="F3" s="58"/>
+      <c r="G3" s="58"/>
+      <c r="H3" s="58"/>
+      <c r="I3" s="58"/>
+      <c r="J3" s="58"/>
+      <c r="K3" s="58"/>
+      <c r="L3" s="59"/>
+      <c r="N3" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="O3" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="56" t="s">
-        <v>35</v>
-      </c>
-      <c r="E3" s="57"/>
-      <c r="F3" s="57"/>
-      <c r="G3" s="57"/>
-      <c r="H3" s="57"/>
-      <c r="I3" s="57"/>
-      <c r="J3" s="57"/>
-      <c r="K3" s="57"/>
-      <c r="L3" s="58"/>
-      <c r="N3" s="19" t="s">
+      <c r="P3" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q3" s="24" t="s">
         <v>13</v>
-      </c>
-      <c r="O3" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="P3" s="19" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q3" s="24" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="4" spans="2:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -1557,39 +1555,39 @@
       <c r="C4" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="52" t="s">
+      <c r="D4" s="36" t="s">
+        <v>35</v>
+      </c>
+      <c r="E4" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="F4" s="37" t="s">
+        <v>36</v>
+      </c>
+      <c r="G4" s="38" t="s">
         <v>37</v>
       </c>
-      <c r="E4" s="54" t="s">
-        <v>44</v>
-      </c>
-      <c r="F4" s="53" t="s">
+      <c r="H4" s="37" t="s">
         <v>38</v>
       </c>
-      <c r="G4" s="54" t="s">
+      <c r="I4" s="38" t="s">
         <v>39</v>
       </c>
-      <c r="H4" s="53" t="s">
+      <c r="J4" s="37" t="s">
         <v>40</v>
       </c>
-      <c r="I4" s="54" t="s">
+      <c r="K4" s="39" t="s">
         <v>41</v>
       </c>
-      <c r="J4" s="53" t="s">
-        <v>42</v>
-      </c>
-      <c r="K4" s="55" t="s">
-        <v>43</v>
-      </c>
-      <c r="L4" s="59"/>
+      <c r="L4" s="40"/>
       <c r="N4" s="7" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="O4" s="26" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="Q4" s="27">
         <v>19500</v>
@@ -1597,10 +1595,10 @@
     </row>
     <row r="5" spans="2:17" ht="33" x14ac:dyDescent="0.3">
       <c r="B5" s="15" t="s">
-        <v>33</v>
-      </c>
-      <c r="C5" s="62" t="s">
-        <v>45</v>
+        <v>31</v>
+      </c>
+      <c r="C5" s="63" t="s">
+        <v>43</v>
       </c>
       <c r="D5" s="16"/>
       <c r="E5" s="17"/>
@@ -1610,15 +1608,15 @@
       <c r="I5" s="17"/>
       <c r="J5" s="17"/>
       <c r="K5" s="18"/>
-      <c r="L5" s="60"/>
+      <c r="L5" s="41"/>
       <c r="N5" s="20" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="O5" s="22" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="P5" s="20" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="Q5" s="25">
         <v>1100</v>
@@ -1628,7 +1626,7 @@
       <c r="B6" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="C6" s="51"/>
+      <c r="C6" s="64"/>
       <c r="D6" s="11"/>
       <c r="E6" s="5"/>
       <c r="F6" s="4"/>
@@ -1637,15 +1635,15 @@
       <c r="I6" s="4"/>
       <c r="J6" s="4"/>
       <c r="K6" s="10"/>
-      <c r="L6" s="60"/>
+      <c r="L6" s="41"/>
       <c r="N6" s="20" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="O6" s="23" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="P6" s="20" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="Q6" s="25">
         <v>1200</v>
@@ -1653,10 +1651,10 @@
     </row>
     <row r="7" spans="2:17" ht="33.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B7" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="C7" s="63" t="s">
-        <v>46</v>
+        <v>32</v>
+      </c>
+      <c r="C7" s="43" t="s">
+        <v>44</v>
       </c>
       <c r="D7" s="11"/>
       <c r="E7" s="4"/>
@@ -1666,15 +1664,15 @@
       <c r="I7" s="4"/>
       <c r="J7" s="4"/>
       <c r="K7" s="10"/>
-      <c r="L7" s="60"/>
+      <c r="L7" s="41"/>
       <c r="N7" s="28" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="O7" s="29" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="P7" s="28" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="Q7" s="30">
         <v>6500</v>
@@ -1682,10 +1680,10 @@
     </row>
     <row r="8" spans="2:17" ht="21" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B8" s="35" t="s">
-        <v>8</v>
-      </c>
-      <c r="C8" s="64" t="s">
-        <v>47</v>
+        <v>7</v>
+      </c>
+      <c r="C8" s="44" t="s">
+        <v>45</v>
       </c>
       <c r="D8" s="11"/>
       <c r="E8" s="4"/>
@@ -1695,21 +1693,21 @@
       <c r="I8" s="4"/>
       <c r="J8" s="4"/>
       <c r="K8" s="10"/>
-      <c r="L8" s="60"/>
+      <c r="L8" s="41"/>
       <c r="N8" s="33" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="O8" s="34" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="P8" s="31"/>
       <c r="Q8" s="32"/>
     </row>
     <row r="9" spans="2:17" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B9" s="35" t="s">
-        <v>9</v>
-      </c>
-      <c r="C9" s="36"/>
+        <v>8</v>
+      </c>
+      <c r="C9" s="45"/>
       <c r="D9" s="11"/>
       <c r="E9" s="4"/>
       <c r="F9" s="4"/>
@@ -1718,20 +1716,20 @@
       <c r="I9" s="4"/>
       <c r="J9" s="4"/>
       <c r="K9" s="10"/>
-      <c r="L9" s="60"/>
-      <c r="N9" s="45" t="s">
-        <v>32</v>
-      </c>
-      <c r="O9" s="46"/>
-      <c r="P9" s="46"/>
-      <c r="Q9" s="47"/>
+      <c r="L9" s="41"/>
+      <c r="N9" s="54" t="s">
+        <v>30</v>
+      </c>
+      <c r="O9" s="55"/>
+      <c r="P9" s="55"/>
+      <c r="Q9" s="56"/>
     </row>
     <row r="10" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B10" s="35" t="s">
-        <v>5</v>
-      </c>
-      <c r="C10" s="64" t="s">
-        <v>48</v>
+        <v>4</v>
+      </c>
+      <c r="C10" s="44" t="s">
+        <v>46</v>
       </c>
       <c r="D10" s="11"/>
       <c r="E10" s="4"/>
@@ -1741,13 +1739,13 @@
       <c r="I10" s="4"/>
       <c r="J10" s="4"/>
       <c r="K10" s="10"/>
-      <c r="L10" s="60"/>
+      <c r="L10" s="41"/>
     </row>
     <row r="11" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B11" s="35" t="s">
-        <v>10</v>
-      </c>
-      <c r="C11" s="36"/>
+        <v>9</v>
+      </c>
+      <c r="C11" s="45"/>
       <c r="D11" s="11"/>
       <c r="E11" s="4"/>
       <c r="F11" s="4"/>
@@ -1756,14 +1754,14 @@
       <c r="I11" s="5"/>
       <c r="J11" s="4"/>
       <c r="K11" s="10"/>
-      <c r="L11" s="60"/>
+      <c r="L11" s="41"/>
     </row>
     <row r="12" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B12" s="35" t="s">
-        <v>11</v>
-      </c>
-      <c r="C12" s="37" t="s">
-        <v>7</v>
+        <v>10</v>
+      </c>
+      <c r="C12" s="46" t="s">
+        <v>6</v>
       </c>
       <c r="D12" s="11"/>
       <c r="E12" s="4"/>
@@ -1773,13 +1771,13 @@
       <c r="I12" s="4"/>
       <c r="J12" s="3"/>
       <c r="K12" s="10"/>
-      <c r="L12" s="60"/>
+      <c r="L12" s="41"/>
     </row>
     <row r="13" spans="2:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B13" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="C13" s="38"/>
+        <v>5</v>
+      </c>
+      <c r="C13" s="47"/>
       <c r="D13" s="12"/>
       <c r="E13" s="13"/>
       <c r="F13" s="13"/>
@@ -1788,21 +1786,21 @@
       <c r="I13" s="13"/>
       <c r="J13" s="13"/>
       <c r="K13" s="14"/>
-      <c r="L13" s="61"/>
+      <c r="L13" s="42"/>
     </row>
     <row r="14" spans="2:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="15" spans="2:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D15" s="42" t="s">
-        <v>29</v>
-      </c>
-      <c r="E15" s="43"/>
-      <c r="F15" s="43"/>
-      <c r="G15" s="43"/>
-      <c r="H15" s="43"/>
-      <c r="I15" s="43"/>
-      <c r="J15" s="43"/>
-      <c r="K15" s="43"/>
-      <c r="L15" s="44"/>
+      <c r="D15" s="51" t="s">
+        <v>27</v>
+      </c>
+      <c r="E15" s="52"/>
+      <c r="F15" s="52"/>
+      <c r="G15" s="52"/>
+      <c r="H15" s="52"/>
+      <c r="I15" s="52"/>
+      <c r="J15" s="52"/>
+      <c r="K15" s="52"/>
+      <c r="L15" s="53"/>
     </row>
   </sheetData>
   <mergeCells count="9">
